--- a/target/test-classes/Datatable/TestData.xlsx
+++ b/target/test-classes/Datatable/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
   <si>
     <t>serviceBaseURI</t>
   </si>
@@ -151,6 +151,18 @@
     <t>/store/order/15</t>
   </si>
   <si>
+    <t>https://gorest.co.in</t>
+  </si>
+  <si>
+    <t>/public-api/users</t>
+  </si>
+  <si>
+    <t>GORestAPI_Get_User</t>
+  </si>
+  <si>
+    <t>pageCount-email-edit</t>
+  </si>
+  <si>
     <t>Passed</t>
   </si>
   <si>
@@ -175,7 +187,10 @@
     <t>{"id":15,"petId":45,"quantity":2,"shipDate":"2020-01-18T11:29:05.242+0000","status":"placed","complete":true}</t>
   </si>
   <si>
-    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"707","createdAt":"2020-01-18T12:22:26.912Z"}</t>
+    <t>{"_meta":{"success":false,"code":401,"message":"Authentication failed."},"result":{"name":"Unauthorized","message":"Your request was made with invalid credentials.","code":0,"status":401}}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"539","createdAt":"2020-01-19T11:02:04.883Z"}</t>
   </si>
   <si>
     <t>HTTP/1.1 201 Created</t>
@@ -184,10 +199,19 @@
     <t>{"id":1500,"category":{"id":1500,"name":"Arun"},"name":"doberman","photoUrls":["string"],"tags":[{"id":1500,"name":"Arun"}],"status":"available"}</t>
   </si>
   <si>
-    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-01-18T12:22:57.414Z"}</t>
+    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-01-19T11:02:37.654Z"}</t>
   </si>
   <si>
     <t>{"id":11,"category":{"id":11,"name":"string"},"name":"Dineshkumar","photoUrls":["string"],"tags":[{"id":11,"name":"string"}],"status":"available"}</t>
+  </si>
+  <si>
+    <t>{"_meta":{"success":true,"code":200,"message":"OK. Everything worked as expected.","totalCount":1698,"pageCount":85,"currentPage":1,"perPage":20,"rateLimit":{"limit":30,"remaining":29,"reset":2}},"result":[{"id":"1","first_name":"Mafalda","last_name":"Pacocha","gender":"female","dob":"1957-01-21","email":"grayce.leannon@example.org","phone":"1-937-287-4450 x5692","website":"http://www.fisher.net/facere-perferendis-quae-aut-distinctio-nulla-nemo.html","address":"8854 Watsica View Apt. 174\nNew Marcelino, MA 39236-0851","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/1"},"edit":{"href":"https://gorest.co.in/public-api/users/1"},"avatar":{"href":"https://lorempixel.com/250/250/people/?66628"}}},{"id":"2","first_name":"Jed","last_name":"Schroeder","gender":"male","dob":"2003-05-04","email":"bschoen@example.net","phone":"237-662-8657","website":"http://www.ledner.com/et-et-aut-doloribus-enim-nam.html","address":"9537 Quitzon Avenue Suite 951\nHartmannview, VT 79766","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/2"},"edit":{"href":"https://gorest.co.in/public-api/users/2"},"avatar":{"href":"https://lorempixel.com/250/250/people/?21672"}}},{"id":"3","first_name":"Juston","last_name":"Tromp","gender":"male","dob":"1950-06-11","email":"loren.von@example.org","phone":"489.267.6973","website":"http://www.christiansen.biz/magni-et-harum-dolorem-dolorum-consequuntur","address":"3998 Gulgowski Rest\nAbshireberg, CO 53441","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/3"},"edit":{"href":"https://gorest.co.in/public-api/users/3"},"avatar":{"href":"https://lorempixel.com/250/250/people/?74357"}}},{"id":"4","first_name":"Jacinto","last_name":"Mosciski","gender":"male","dob":"1935-05-18","email":"willow98@example.org","phone":"1-436-516-4561 x8578","website":"https://www.parker.biz/voluptatem-ab-quis-voluptas-provident","address":"737 Lueilwitz Island Suite 841\nNorth Jessika, NY 31031","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/4"},"edit":{"href":"https://gorest.co.in/public-api/users/4"},"avatar":{"href":"https://lorempixel.com/250/250/people/?74557"}}},{"id":"5","first_name":"Ruthe","last_name":"Hammes","gender":"female","dob":"1995-01-11","email":"jbrekke@example.net","phone":"998.529.6241 x4241","website":"http://dibbert.org/","address":"92503 Kadin Mountain Suite 419\nLeonland, VT 66751","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/5"},"edit":{"href":"https://gorest.co.in/public-api/users/5"},"avatar":{"href":"https://lorempixel.com/250/250/people/?65379"}}},{"id":"6","first_name":"Liliane","last_name":"Carroll","gender":"female","dob":"1924-10-19","email":"neichmann@example.com","phone":"535.814.8495 x080","website":"http://swift.info/corporis-beatae-ratione-et-sint-exercitationem-blanditiis.html","address":"5020 Johnson Stream Apt. 468\nNew Nasir, IN 32059","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/6"},"edit":{"href":"https://gorest.co.in/public-api/users/6"},"avatar":{"href":"https://lorempixel.com/250/250/people/?80500"}}},{"id":"7","first_name":"Meredith","last_name":"Keebler","gender":"female","dob":"2008-02-29","email":"hackett.sammie@example.net","phone":"806.681.0936","website":"http://www.boyle.net/doloribus-repellat-impedit-nam-pariatur-et-modi-impedit-qui","address":"8108 Frami Ferry Suite 239\nNew Walkerport, MI 98882","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/7"},"edit":{"href":"https://gorest.co.in/public-api/users/7"},"avatar":{"href":"https://lorempixel.com/250/250/people/?76238"}}},{"id":"8","first_name":"Kenya","last_name":"Turner","gender":"female","dob":"1991-09-20","email":"vgoldner@example.net","phone":"+1-735-650-5653","website":"http://ziemann.com/quod-non-ullam-voluptatem-blanditiis-dolorem","address":"671 Sipes Dale Suite 930\nLaurianemouth, ID 73301","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/8"},"edit":{"href":"https://gorest.co.in/public-api/users/8"},"avatar":{"href":"https://lorempixel.com/250/250/people/?30376"}}},{"id":"9","first_name":"Annetta","last_name":"Weber","gender":"female","dob":"1933-09-07","email":"jhayes@example.org","phone":"(829) 762-3773 x93390","website":"http://olson.net/","address":"83530 Sydnie Ways Suite 284\nLake Ariane, RI 72273","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/9"},"edit":{"href":"https://gorest.co.in/public-api/users/9"},"avatar":{"href":"https://lorempixel.com/250/250/people/?45504"}}},{"id":"10","first_name":"Tyree","last_name":"Rau","gender":"male","dob":"1940-05-05","email":"janis82@example.net","phone":"838-621-1446","website":"http://daniel.com/","address":"617 Deanna Field Apt. 482\nLuettgenberg, MO 22531-5296","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/10"},"edit":{"href":"https://gorest.co.in/public-api/users/10"},"avatar":{"href":"https://lorempixel.com/250/250/people/?14844"}}},{"id":"11","first_name":"Estel","last_name":"Wisoky","gender":"female","dob":"1943-12-22","email":"therman@example.net","phone":"1-246-860-1223","website":"http://jacobson.info/","address":"35235 Jesse Walks Apt. 500\nKesslerburgh, NE 72955","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/11"},"edit":{"href":"https://gorest.co.in/public-api/users/11"},"avatar":{"href":"https://lorempixel.com/250/250/people/?30307"}}},{"id":"12","first_name":"Willis","last_name":"Marquardt","gender":"male","dob":"1941-03-06","email":"lang.bernita@example.org","phone":"783.584.2496 x142","website":"https://www.gusikowski.org/quos-dolores-ab-sint-sequi","address":"2711 Caden Greens\nCaroleview, WV 29087","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/12"},"edit":{"href":"https://gorest.co.in/public-api/users/12"},"avatar":{"href":"https://lorempixel.com/250/250/people/?28260"}}},{"id":"13","first_name":"Dion","last_name":"Ruecker","gender":"male","dob":"1993-07-02","email":"weber.maxie@example.net","phone":"(618) 845-5029","website":"http://goldner.info/cumque-praesentium-corporis-non-aut-velit.html","address":"2151 Lacy Lock\nDooleyhaven, NV 58016-8486","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/13"},"edit":{"href":"https://gorest.co.in/public-api/users/13"},"avatar":{"href":"https://lorempixel.com/250/250/people/?66434"}}},{"id":"14","first_name":"Milford","last_name":"Roob","gender":"male","dob":"1942-04-12","email":"welch.gideon@example.com","phone":"202-464-5163","website":"http://armstrong.info/voluptate-deserunt-perferendis-quo-quia-minus","address":"690 Crist Villages\nSouth Freddyport, CA 94531","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/14"},"edit":{"href":"https://gorest.co.in/public-api/users/14"},"avatar":{"href":"https://lorempixel.com/250/250/people/?31667"}}},{"id":"15","first_name":"Jed","last_name":"Bailey","gender":"male","dob":"2001-11-19","email":"bode.skylar@example.com","phone":"857-944-7426 x49233","website":"http://www.wiegand.biz/","address":"49466 Kihn Inlet\nNew Scottiehaven, WY 60701","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/15"},"edit":{"href":"https://gorest.co.in/public-api/users/15"},"avatar":{"href":"https://lorempixel.com/250/250/people/?26469"}}},{"id":"16","first_name":"Verlie","last_name":"Senger","gender":"female","dob":"1946-03-21","email":"bernier.dave@example.com","phone":"1-882-258-1660 x69988","website":"http://kunze.net/molestias-magnam-ea-dolorem-qui-et-voluptate-minus-tenetur","address":"587 Oberbrunner Coves Apt. 891\nJeradland, PA 84775","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/16"},"edit":{"href":"https://gorest.co.in/public-api/users/16"},"avatar":{"href":"https://lorempixel.com/250/250/people/?91819"}}},{"id":"17","first_name":"Anabelle","last_name":"Heller","gender":"female","dob":"1973-05-13","email":"kaylie50@example.net","phone":"413.327.3149","website":"http://lemke.com/et-quos-sed-et-perferendis-quas-repellendus-consequatur","address":"72820 Schroeder Highway\nLake Sidney, PA 94619-4595","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/17"},"edit":{"href":"https://gorest.co.in/public-api/users/17"},"avatar":{"href":"https://lorempixel.com/250/250/people/?87627"}}},{"id":"18","first_name":"Maurice","last_name":"Kovacek","gender":"male","dob":"1939-05-22","email":"wilkinson.sierra@example.com","phone":"+1 (702) 788-5528","website":"http://www.auer.com/sed-itaque-aut-saepe-fugiat-vel","address":"465 Lockman Course Suite 928\nLake Ibrahim, TX 89906-0948","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/18"},"edit":{"href":"https://gorest.co.in/public-api/users/18"},"avatar":{"href":"https://lorempixel.com/250/250/people/?46514"}}},{"id":"19","first_name":"Cara","last_name":"Connelly","gender":"female","dob":"1934-05-19","email":"stephany10@example.org","phone":"(718) 709-4352 x963","website":"http://keebler.net/","address":"82915 Owen Island\nSouth Sonia, MS 81330-4783","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/19"},"edit":{"href":"https://gorest.co.in/public-api/users/19"},"avatar":{"href":"https://lorempixel.com/250/250/people/?35361"}}},{"id":"20","first_name":"Immanuel","last_name":"Littel","gender":"male","dob":"2002-08-17","email":"gertrude.wisoky@example.com","phone":"+1-485-951-1703","website":"http://www.graham.com/","address":"49283 Erdman Row Apt. 759\nWest Daltonland, SD 46416","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/20"},"edit":{"href":"https://gorest.co.in/public-api/users/20"},"avatar":{"href":"https://lorempixel.com/250/250/people/?28078"}}}]}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"638","createdAt":"2020-01-19T11:05:53.075Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-01-19T11:06:26.432Z"}</t>
   </si>
 </sst>
 </file>
@@ -562,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,16 +660,16 @@
         <v>200.0</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>11</v>
@@ -671,14 +695,14 @@
         <v>404.0</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>11</v>
@@ -704,16 +728,16 @@
         <v>201.0</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>11</v>
@@ -739,16 +763,16 @@
         <v>200.0</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>11</v>
@@ -774,16 +798,16 @@
         <v>404.0</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>11</v>
@@ -809,16 +833,16 @@
         <v>200.0</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>11</v>
@@ -844,16 +868,16 @@
         <v>200.0</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>11</v>
@@ -879,16 +903,16 @@
         <v>200.0</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>11</v>
@@ -914,18 +938,53 @@
         <v>200.0</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="F11" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -945,9 +1004,10 @@
     <hyperlink ref="E8" r:id="rId11"/>
     <hyperlink ref="E10" r:id="rId12"/>
     <hyperlink ref="E9" r:id="rId13"/>
+    <hyperlink ref="E11" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/target/test-classes/Datatable/TestData.xlsx
+++ b/target/test-classes/Datatable/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="77">
   <si>
     <t>serviceBaseURI</t>
   </si>
@@ -190,28 +190,67 @@
     <t>{"_meta":{"success":false,"code":401,"message":"Authentication failed."},"result":{"name":"Unauthorized","message":"Your request was made with invalid credentials.","code":0,"status":401}}</t>
   </si>
   <si>
-    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"539","createdAt":"2020-01-19T11:02:04.883Z"}</t>
-  </si>
-  <si>
     <t>HTTP/1.1 201 Created</t>
   </si>
   <si>
     <t>{"id":1500,"category":{"id":1500,"name":"Arun"},"name":"doberman","photoUrls":["string"],"tags":[{"id":1500,"name":"Arun"}],"status":"available"}</t>
   </si>
   <si>
-    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-01-19T11:02:37.654Z"}</t>
-  </si>
-  <si>
     <t>{"id":11,"category":{"id":11,"name":"string"},"name":"Dineshkumar","photoUrls":["string"],"tags":[{"id":11,"name":"string"}],"status":"available"}</t>
   </si>
   <si>
-    <t>{"_meta":{"success":true,"code":200,"message":"OK. Everything worked as expected.","totalCount":1698,"pageCount":85,"currentPage":1,"perPage":20,"rateLimit":{"limit":30,"remaining":29,"reset":2}},"result":[{"id":"1","first_name":"Mafalda","last_name":"Pacocha","gender":"female","dob":"1957-01-21","email":"grayce.leannon@example.org","phone":"1-937-287-4450 x5692","website":"http://www.fisher.net/facere-perferendis-quae-aut-distinctio-nulla-nemo.html","address":"8854 Watsica View Apt. 174\nNew Marcelino, MA 39236-0851","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/1"},"edit":{"href":"https://gorest.co.in/public-api/users/1"},"avatar":{"href":"https://lorempixel.com/250/250/people/?66628"}}},{"id":"2","first_name":"Jed","last_name":"Schroeder","gender":"male","dob":"2003-05-04","email":"bschoen@example.net","phone":"237-662-8657","website":"http://www.ledner.com/et-et-aut-doloribus-enim-nam.html","address":"9537 Quitzon Avenue Suite 951\nHartmannview, VT 79766","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/2"},"edit":{"href":"https://gorest.co.in/public-api/users/2"},"avatar":{"href":"https://lorempixel.com/250/250/people/?21672"}}},{"id":"3","first_name":"Juston","last_name":"Tromp","gender":"male","dob":"1950-06-11","email":"loren.von@example.org","phone":"489.267.6973","website":"http://www.christiansen.biz/magni-et-harum-dolorem-dolorum-consequuntur","address":"3998 Gulgowski Rest\nAbshireberg, CO 53441","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/3"},"edit":{"href":"https://gorest.co.in/public-api/users/3"},"avatar":{"href":"https://lorempixel.com/250/250/people/?74357"}}},{"id":"4","first_name":"Jacinto","last_name":"Mosciski","gender":"male","dob":"1935-05-18","email":"willow98@example.org","phone":"1-436-516-4561 x8578","website":"https://www.parker.biz/voluptatem-ab-quis-voluptas-provident","address":"737 Lueilwitz Island Suite 841\nNorth Jessika, NY 31031","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/4"},"edit":{"href":"https://gorest.co.in/public-api/users/4"},"avatar":{"href":"https://lorempixel.com/250/250/people/?74557"}}},{"id":"5","first_name":"Ruthe","last_name":"Hammes","gender":"female","dob":"1995-01-11","email":"jbrekke@example.net","phone":"998.529.6241 x4241","website":"http://dibbert.org/","address":"92503 Kadin Mountain Suite 419\nLeonland, VT 66751","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/5"},"edit":{"href":"https://gorest.co.in/public-api/users/5"},"avatar":{"href":"https://lorempixel.com/250/250/people/?65379"}}},{"id":"6","first_name":"Liliane","last_name":"Carroll","gender":"female","dob":"1924-10-19","email":"neichmann@example.com","phone":"535.814.8495 x080","website":"http://swift.info/corporis-beatae-ratione-et-sint-exercitationem-blanditiis.html","address":"5020 Johnson Stream Apt. 468\nNew Nasir, IN 32059","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/6"},"edit":{"href":"https://gorest.co.in/public-api/users/6"},"avatar":{"href":"https://lorempixel.com/250/250/people/?80500"}}},{"id":"7","first_name":"Meredith","last_name":"Keebler","gender":"female","dob":"2008-02-29","email":"hackett.sammie@example.net","phone":"806.681.0936","website":"http://www.boyle.net/doloribus-repellat-impedit-nam-pariatur-et-modi-impedit-qui","address":"8108 Frami Ferry Suite 239\nNew Walkerport, MI 98882","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/7"},"edit":{"href":"https://gorest.co.in/public-api/users/7"},"avatar":{"href":"https://lorempixel.com/250/250/people/?76238"}}},{"id":"8","first_name":"Kenya","last_name":"Turner","gender":"female","dob":"1991-09-20","email":"vgoldner@example.net","phone":"+1-735-650-5653","website":"http://ziemann.com/quod-non-ullam-voluptatem-blanditiis-dolorem","address":"671 Sipes Dale Suite 930\nLaurianemouth, ID 73301","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/8"},"edit":{"href":"https://gorest.co.in/public-api/users/8"},"avatar":{"href":"https://lorempixel.com/250/250/people/?30376"}}},{"id":"9","first_name":"Annetta","last_name":"Weber","gender":"female","dob":"1933-09-07","email":"jhayes@example.org","phone":"(829) 762-3773 x93390","website":"http://olson.net/","address":"83530 Sydnie Ways Suite 284\nLake Ariane, RI 72273","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/9"},"edit":{"href":"https://gorest.co.in/public-api/users/9"},"avatar":{"href":"https://lorempixel.com/250/250/people/?45504"}}},{"id":"10","first_name":"Tyree","last_name":"Rau","gender":"male","dob":"1940-05-05","email":"janis82@example.net","phone":"838-621-1446","website":"http://daniel.com/","address":"617 Deanna Field Apt. 482\nLuettgenberg, MO 22531-5296","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/10"},"edit":{"href":"https://gorest.co.in/public-api/users/10"},"avatar":{"href":"https://lorempixel.com/250/250/people/?14844"}}},{"id":"11","first_name":"Estel","last_name":"Wisoky","gender":"female","dob":"1943-12-22","email":"therman@example.net","phone":"1-246-860-1223","website":"http://jacobson.info/","address":"35235 Jesse Walks Apt. 500\nKesslerburgh, NE 72955","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/11"},"edit":{"href":"https://gorest.co.in/public-api/users/11"},"avatar":{"href":"https://lorempixel.com/250/250/people/?30307"}}},{"id":"12","first_name":"Willis","last_name":"Marquardt","gender":"male","dob":"1941-03-06","email":"lang.bernita@example.org","phone":"783.584.2496 x142","website":"https://www.gusikowski.org/quos-dolores-ab-sint-sequi","address":"2711 Caden Greens\nCaroleview, WV 29087","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/12"},"edit":{"href":"https://gorest.co.in/public-api/users/12"},"avatar":{"href":"https://lorempixel.com/250/250/people/?28260"}}},{"id":"13","first_name":"Dion","last_name":"Ruecker","gender":"male","dob":"1993-07-02","email":"weber.maxie@example.net","phone":"(618) 845-5029","website":"http://goldner.info/cumque-praesentium-corporis-non-aut-velit.html","address":"2151 Lacy Lock\nDooleyhaven, NV 58016-8486","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/13"},"edit":{"href":"https://gorest.co.in/public-api/users/13"},"avatar":{"href":"https://lorempixel.com/250/250/people/?66434"}}},{"id":"14","first_name":"Milford","last_name":"Roob","gender":"male","dob":"1942-04-12","email":"welch.gideon@example.com","phone":"202-464-5163","website":"http://armstrong.info/voluptate-deserunt-perferendis-quo-quia-minus","address":"690 Crist Villages\nSouth Freddyport, CA 94531","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/14"},"edit":{"href":"https://gorest.co.in/public-api/users/14"},"avatar":{"href":"https://lorempixel.com/250/250/people/?31667"}}},{"id":"15","first_name":"Jed","last_name":"Bailey","gender":"male","dob":"2001-11-19","email":"bode.skylar@example.com","phone":"857-944-7426 x49233","website":"http://www.wiegand.biz/","address":"49466 Kihn Inlet\nNew Scottiehaven, WY 60701","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/15"},"edit":{"href":"https://gorest.co.in/public-api/users/15"},"avatar":{"href":"https://lorempixel.com/250/250/people/?26469"}}},{"id":"16","first_name":"Verlie","last_name":"Senger","gender":"female","dob":"1946-03-21","email":"bernier.dave@example.com","phone":"1-882-258-1660 x69988","website":"http://kunze.net/molestias-magnam-ea-dolorem-qui-et-voluptate-minus-tenetur","address":"587 Oberbrunner Coves Apt. 891\nJeradland, PA 84775","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/16"},"edit":{"href":"https://gorest.co.in/public-api/users/16"},"avatar":{"href":"https://lorempixel.com/250/250/people/?91819"}}},{"id":"17","first_name":"Anabelle","last_name":"Heller","gender":"female","dob":"1973-05-13","email":"kaylie50@example.net","phone":"413.327.3149","website":"http://lemke.com/et-quos-sed-et-perferendis-quas-repellendus-consequatur","address":"72820 Schroeder Highway\nLake Sidney, PA 94619-4595","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/17"},"edit":{"href":"https://gorest.co.in/public-api/users/17"},"avatar":{"href":"https://lorempixel.com/250/250/people/?87627"}}},{"id":"18","first_name":"Maurice","last_name":"Kovacek","gender":"male","dob":"1939-05-22","email":"wilkinson.sierra@example.com","phone":"+1 (702) 788-5528","website":"http://www.auer.com/sed-itaque-aut-saepe-fugiat-vel","address":"465 Lockman Course Suite 928\nLake Ibrahim, TX 89906-0948","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/18"},"edit":{"href":"https://gorest.co.in/public-api/users/18"},"avatar":{"href":"https://lorempixel.com/250/250/people/?46514"}}},{"id":"19","first_name":"Cara","last_name":"Connelly","gender":"female","dob":"1934-05-19","email":"stephany10@example.org","phone":"(718) 709-4352 x963","website":"http://keebler.net/","address":"82915 Owen Island\nSouth Sonia, MS 81330-4783","status":"inactive","_links":{"self":{"href":"https://gorest.co.in/public-api/users/19"},"edit":{"href":"https://gorest.co.in/public-api/users/19"},"avatar":{"href":"https://lorempixel.com/250/250/people/?35361"}}},{"id":"20","first_name":"Immanuel","last_name":"Littel","gender":"male","dob":"2002-08-17","email":"gertrude.wisoky@example.com","phone":"+1-485-951-1703","website":"http://www.graham.com/","address":"49283 Erdman Row Apt. 759\nWest Daltonland, SD 46416","status":"active","_links":{"self":{"href":"https://gorest.co.in/public-api/users/20"},"edit":{"href":"https://gorest.co.in/public-api/users/20"},"avatar":{"href":"https://lorempixel.com/250/250/people/?28078"}}}]}</t>
-  </si>
-  <si>
-    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"638","createdAt":"2020-01-19T11:05:53.075Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-01-19T11:06:26.432Z"}</t>
+    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"270","createdAt":"2020-01-24T17:50:24.831Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-01-24T17:50:56.998Z"}</t>
+  </si>
+  <si>
+    <t>Webservice_Post_ADD</t>
+  </si>
+  <si>
+    <t>Webservice_Post_SUBTRACT</t>
+  </si>
+  <si>
+    <t>/calculator.asmx</t>
+  </si>
+  <si>
+    <t>http://www.dneonline.com/</t>
+  </si>
+  <si>
+    <t>text/xml; charset=utf-8</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;&lt;soap:Envelope xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema"&gt;&lt;soap:Body&gt;&lt;AddResponse xmlns="http://tempuri.org/"&gt;&lt;AddResult&gt;30&lt;/AddResult&gt;&lt;/AddResponse&gt;&lt;/soap:Body&gt;&lt;/soap:Envelope&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;&lt;soap:Envelope xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema"&gt;&lt;soap:Body&gt;&lt;SubtractResponse xmlns="http://tempuri.org/"&gt;&lt;SubtractResult&gt;10&lt;/SubtractResult&gt;&lt;/SubtractResponse&gt;&lt;/soap:Body&gt;&lt;/soap:Envelope&gt;</t>
+  </si>
+  <si>
+    <t>Webservice_Post_DIVIDE</t>
+  </si>
+  <si>
+    <t>Webservice_Post_MULTIPLY</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;&lt;soap:Envelope xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema"&gt;&lt;soap:Body&gt;&lt;DivideResponse xmlns="http://tempuri.org/"&gt;&lt;DivideResult&gt;4&lt;/DivideResult&gt;&lt;/DivideResponse&gt;&lt;/soap:Body&gt;&lt;/soap:Envelope&gt;</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;&lt;soap:Envelope xmlns:soap="http://schemas.xmlsoap.org/soap/envelope/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema"&gt;&lt;soap:Body&gt;&lt;MultiplyResponse xmlns="http://tempuri.org/"&gt;&lt;MultiplyResult&gt;40&lt;/MultiplyResult&gt;&lt;/MultiplyResponse&gt;&lt;/soap:Body&gt;&lt;/soap:Envelope&gt;</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"266","createdAt":"2020-01-25T19:33:00.935Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-01-25T19:33:30.578Z"}</t>
+  </si>
+  <si>
+    <t>{"id":101,"category":{"id":1,"name":"dog"},"name":"seven","photoUrls":["myDoggie.phone.url"],"tags":[{"id":2,"name":"wildDog"}],"status":"availabe"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"721","createdAt":"2020-01-26T12:49:31.514Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-01-26T12:50:01.051Z"}</t>
   </si>
 </sst>
 </file>
@@ -586,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +767,7 @@
         <v>201.0</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>17</v>
@@ -737,7 +776,7 @@
         <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>11</v>
@@ -772,7 +811,7 @@
         <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>11</v>
@@ -795,19 +834,19 @@
         <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>404.0</v>
+        <v>200.0</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>11</v>
@@ -842,7 +881,7 @@
         <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>11</v>
@@ -877,7 +916,7 @@
         <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>11</v>
@@ -982,11 +1021,139 @@
         <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K8"/>
@@ -1005,9 +1172,13 @@
     <hyperlink ref="E10" r:id="rId12"/>
     <hyperlink ref="E9" r:id="rId13"/>
     <hyperlink ref="E11" r:id="rId14"/>
+    <hyperlink ref="E12" r:id="rId15"/>
+    <hyperlink ref="E13" r:id="rId16"/>
+    <hyperlink ref="E14" r:id="rId17"/>
+    <hyperlink ref="E15" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/target/test-classes/Datatable/TestData.xlsx
+++ b/target/test-classes/Datatable/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="93">
   <si>
     <t>serviceBaseURI</t>
   </si>
@@ -251,6 +251,54 @@
   </si>
   <si>
     <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-01-26T12:50:01.051Z"}</t>
+  </si>
+  <si>
+    <t>{"page":2,"per_page":6,"total":12,"total_pages":2,"data":[{"id":7,"email":"michael.lawson@reqres.in","first_name":"Michael","last_name":"Lawson","avatar":"https://s3.amazonaws.com/uifaces/faces/twitter/follettkyle/128.jpg"},{"id":8,"email":"lindsay.ferguson@reqres.in","first_name":"Lindsay","last_name":"Ferguson","avatar":"https://s3.amazonaws.com/uifaces/faces/twitter/araa3185/128.jpg"},{"id":9,"email":"tobias.funke@reqres.in","first_name":"Tobias","last_name":"Funke","avatar":"https://s3.amazonaws.com/uifaces/faces/twitter/vivekprvr/128.jpg"},{"id":10,"email":"byron.fields@reqres.in","first_name":"Byron","last_name":"Fields","avatar":"https://s3.amazonaws.com/uifaces/faces/twitter/russoedu/128.jpg"},{"id":11,"email":"george.edwards@reqres.in","first_name":"George","last_name":"Edwards","avatar":"https://s3.amazonaws.com/uifaces/faces/twitter/mrmoiree/128.jpg"},{"id":12,"email":"rachel.howell@reqres.in","first_name":"Rachel","last_name":"Howell","avatar":"https://s3.amazonaws.com/uifaces/faces/twitter/hebertialmeida/128.jpg"}],"ad":{"company":"StatusCode Weekly","url":"http://statuscode.org/","text":"A weekly newsletter focusing on software development, infrastructure, the server, performance, and the stack end of things."}}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"703","createdAt":"2020-08-03T14:17:04.533Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-08-03T14:17:35.172Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"905","createdAt":"2020-08-03T14:34:32.614Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-08-03T14:35:02.498Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"961","createdAt":"2020-08-03T15:08:27.458Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-08-03T15:08:57.536Z"}</t>
+  </si>
+  <si>
+    <t>{"id":15,"petId":0,"quantity":0,"shipDate":"2020-01-20T13:40:02.204+0000","status":"placed","complete":true}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"590","createdAt":"2020-08-09T10:48:37.849Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-08-09T10:49:07.303Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"397","createdAt":"2020-08-09T11:13:28.040Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-08-09T11:13:58.882Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"911","createdAt":"2020-08-09T11:32:32.347Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-08-09T11:33:02.192Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick Sudharsanam","job":"QA Engineer","id":"766","createdAt":"2020-08-09T11:41:26.903Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Koushick","job":"Test Engineer","updatedAt":"2020-08-09T11:41:56.938Z"}</t>
   </si>
 </sst>
 </file>
@@ -708,7 +756,7 @@
         <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>11</v>
@@ -776,7 +824,7 @@
         <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>11</v>
@@ -811,7 +859,7 @@
         <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>11</v>
@@ -834,19 +882,19 @@
         <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>200.0</v>
+        <v>404.0</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>11</v>
